--- a/LAB_Nokia_SROS/router_info.xlsx
+++ b/LAB_Nokia_SROS/router_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01--Work Data\Training\Cisco DevNet Associate_VNPro\DevNet_Associate_LAB\LAB_Nokia_SROS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8ED825-2BE4-4BC3-A807-80F487184C59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729C0B44-1B6D-4497-9CCE-BF01F85B433E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>hostname</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>port</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>10.18.8.142</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -202,6 +208,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,7 +498,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,8 +536,8 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E2">
         <v>9025</v>
@@ -535,13 +547,13 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E3">

--- a/LAB_Nokia_SROS/router_info.xlsx
+++ b/LAB_Nokia_SROS/router_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01--Work Data\Training\Cisco DevNet Associate_VNPro\DevNet_Associate_LAB\LAB_Nokia_SROS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729C0B44-1B6D-4497-9CCE-BF01F85B433E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487963FB-33B7-46DA-9B19-99D5D7007C09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>hostname</t>
   </si>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>port</t>
-  </si>
-  <si>
-    <t>admin1</t>
-  </si>
-  <si>
-    <t>10.18.8.142</t>
   </si>
 </sst>
 </file>
@@ -498,7 +492,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>9025</v>
@@ -548,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
